--- a/DecisionTree/Baitap.xlsx
+++ b/DecisionTree/Baitap.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="DecisionTree" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,6 +195,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -204,15 +207,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127002</xdr:rowOff>
+      <xdr:colOff>1198562</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>122131</xdr:rowOff>
+      <xdr:colOff>1681162</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -236,7 +239,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4111625" y="317502"/>
+          <a:off x="4802187" y="1095377"/>
           <a:ext cx="3657600" cy="2662129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -405,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,7 +443,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -651,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
